--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987569333333333</v>
+        <v>0.6881063333333334</v>
       </c>
       <c r="H2">
-        <v>5.962707999999999</v>
+        <v>2.064319</v>
       </c>
       <c r="I2">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="J2">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>53.32811038252488</v>
+        <v>17.45827355098345</v>
       </c>
       <c r="R2">
-        <v>479.9529934427239</v>
+        <v>157.124461958851</v>
       </c>
       <c r="S2">
-        <v>0.07346096513753789</v>
+        <v>0.02704423734183802</v>
       </c>
       <c r="T2">
-        <v>0.0734609651375379</v>
+        <v>0.02704423734183802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987569333333333</v>
+        <v>0.6881063333333334</v>
       </c>
       <c r="H3">
-        <v>5.962707999999999</v>
+        <v>2.064319</v>
       </c>
       <c r="I3">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="J3">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>20.31234575278889</v>
+        <v>7.032234560547224</v>
       </c>
       <c r="R3">
-        <v>182.8111117751</v>
+        <v>63.29011104492501</v>
       </c>
       <c r="S3">
-        <v>0.02798082498149435</v>
+        <v>0.01089348382264304</v>
       </c>
       <c r="T3">
-        <v>0.02798082498149435</v>
+        <v>0.01089348382264304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987569333333333</v>
+        <v>0.6881063333333334</v>
       </c>
       <c r="H4">
-        <v>5.962707999999999</v>
+        <v>2.064319</v>
       </c>
       <c r="I4">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="J4">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>16.49171078824889</v>
+        <v>5.709511839702222</v>
       </c>
       <c r="R4">
-        <v>148.42539709424</v>
+        <v>51.38560655732</v>
       </c>
       <c r="S4">
-        <v>0.02271779334733198</v>
+        <v>0.00884448240818423</v>
       </c>
       <c r="T4">
-        <v>0.02271779334733198</v>
+        <v>0.00884448240818423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>22.444786</v>
       </c>
       <c r="I5">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="J5">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>200.7373202444509</v>
+        <v>189.8191189352438</v>
       </c>
       <c r="R5">
-        <v>1806.635882200058</v>
+        <v>1708.372070417194</v>
       </c>
       <c r="S5">
-        <v>0.2765212788997045</v>
+        <v>0.2940447283926385</v>
       </c>
       <c r="T5">
-        <v>0.2765212788997045</v>
+        <v>0.2940447283926385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.444786</v>
       </c>
       <c r="I6">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="J6">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>76.45959748143891</v>
@@ -818,10 +818,10 @@
         <v>688.13637733295</v>
       </c>
       <c r="S6">
-        <v>0.1053252362539126</v>
+        <v>0.1184419235562358</v>
       </c>
       <c r="T6">
-        <v>0.1053252362539126</v>
+        <v>0.1184419235562358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.444786</v>
       </c>
       <c r="I7">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="J7">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>62.07798862800889</v>
@@ -880,10 +880,10 @@
         <v>558.70189765208</v>
       </c>
       <c r="S7">
-        <v>0.08551416740063239</v>
+        <v>0.0961636815494406</v>
       </c>
       <c r="T7">
-        <v>0.08551416740063239</v>
+        <v>0.09616368154944062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>19.617055</v>
       </c>
       <c r="I8">
-        <v>0.4084797339793862</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="J8">
-        <v>0.4084797339793863</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>175.4472086206572</v>
+        <v>165.9045488873995</v>
       </c>
       <c r="R8">
-        <v>1579.024877585915</v>
+        <v>1493.140939986595</v>
       </c>
       <c r="S8">
-        <v>0.241683442062929</v>
+        <v>0.256999180537451</v>
       </c>
       <c r="T8">
-        <v>0.2416834420629291</v>
+        <v>0.2569991805374509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>19.617055</v>
       </c>
       <c r="I9">
-        <v>0.4084797339793862</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="J9">
-        <v>0.4084797339793863</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
         <v>66.82675116934723</v>
@@ -1004,10 +1004,10 @@
         <v>601.440760524125</v>
       </c>
       <c r="S9">
-        <v>0.09205572075764046</v>
+        <v>0.1035198878130748</v>
       </c>
       <c r="T9">
-        <v>0.09205572075764044</v>
+        <v>0.1035198878130748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>19.617055</v>
       </c>
       <c r="I10">
-        <v>0.4084797339793862</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="J10">
-        <v>0.4084797339793863</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
         <v>54.25702509282223</v>
@@ -1066,10 +1066,10 @@
         <v>488.3132258354</v>
       </c>
       <c r="S10">
-        <v>0.07474057115881669</v>
+        <v>0.08404839457849415</v>
       </c>
       <c r="T10">
-        <v>0.07474057115881669</v>
+        <v>0.08404839457849415</v>
       </c>
     </row>
   </sheetData>
